--- a/exercicio_11-08/Pasta1.xlsx
+++ b/exercicio_11-08/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento.DESKTOP-CJ165MI\Desktop\Banco_de_Dados\exercicio_11-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0E0FB-81F9-4075-A281-45131D5B9DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C4925-25A0-4D5E-B773-501BDC16CC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4B79D791-2BE3-445B-BCB8-3400B4D37CC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4B79D791-2BE3-445B-BCB8-3400B4D37CC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="138">
   <si>
     <t>id_cliente</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Id_Aparelho</t>
+  </si>
+  <si>
+    <t>Para descobrir a data de um dia (=hoje()-3)</t>
   </si>
 </sst>
 </file>
@@ -708,174 +711,6 @@
     <cellStyle name="Ruim" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1220,6 +1055,96 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1361,6 +1286,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -1399,6 +1360,48 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1418,7 +1421,7 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AB1AE89A-43AF-46DB-8655-C010F30DAA88}" name="Coluna1"/>
     <tableColumn id="2" xr3:uid="{F4BB9F2D-D691-4B32-A1FF-7B8F5D12268F}" name="Coluna2"/>
-    <tableColumn id="3" xr3:uid="{4AF4C7E5-646D-4A53-A2FE-027C6CFA8B22}" name="Coluna3" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4AF4C7E5-646D-4A53-A2FE-027C6CFA8B22}" name="Coluna3" dataDxfId="39"/>
     <tableColumn id="4" xr3:uid="{3F1640C4-3BA3-471F-B755-022F05ECA789}" name="Coluna4"/>
     <tableColumn id="5" xr3:uid="{C323CDE6-DCBB-480E-A09D-873D9C475EB5}" name="Coluna5"/>
     <tableColumn id="6" xr3:uid="{015A13D2-C6D2-4537-87F2-0AB90AE81141}" name="Coluna6"/>
@@ -1428,33 +1431,33 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0644A8A4-9088-4A2B-A395-B3268312303B}" name="Tabela13" displayName="Tabela13" ref="A11:B21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0644A8A4-9088-4A2B-A395-B3268312303B}" name="Tabela13" displayName="Tabela13" ref="A11:B21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A11:B21" xr:uid="{0644A8A4-9088-4A2B-A395-B3268312303B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{07998967-09FB-4E8D-9A1B-E4A34CC8A474}" name="Coluna1" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{72F44413-11FD-44C7-AD4F-B6B7D1D06A4A}" name="Coluna2" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{07998967-09FB-4E8D-9A1B-E4A34CC8A474}" name="Coluna1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{72F44413-11FD-44C7-AD4F-B6B7D1D06A4A}" name="Coluna2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7848D9C9-4361-4E6D-9CBD-966B8C592846}" name="Tabela14" displayName="Tabela14" ref="D11:E17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7848D9C9-4361-4E6D-9CBD-966B8C592846}" name="Tabela14" displayName="Tabela14" ref="D11:E17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="D11:E17" xr:uid="{7848D9C9-4361-4E6D-9CBD-966B8C592846}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6993342E-81B2-4756-90D4-1427B9091249}" name="Coluna1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{78DD8921-4A7F-4F5F-ADAB-1DBBA78F2A4C}" name="Coluna2" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{6993342E-81B2-4756-90D4-1427B9091249}" name="Coluna1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{78DD8921-4A7F-4F5F-ADAB-1DBBA78F2A4C}" name="Coluna2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1BB93942-64B9-4620-BC0A-1ABE31F01497}" name="Tabela15" displayName="Tabela15" ref="G11:H17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1BB93942-64B9-4620-BC0A-1ABE31F01497}" name="Tabela15" displayName="Tabela15" ref="G11:H17" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="G11:H17" xr:uid="{1BB93942-64B9-4620-BC0A-1ABE31F01497}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E9915EE6-3CEA-45A5-8D75-66A53FD1440E}" name="Coluna1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C5AA85F0-3B52-428C-9497-F90473A2CBA9}" name="Coluna2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{E9915EE6-3CEA-45A5-8D75-66A53FD1440E}" name="Coluna1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C5AA85F0-3B52-428C-9497-F90473A2CBA9}" name="Coluna2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1487,7 +1490,7 @@
   <autoFilter ref="H11:K18" xr:uid="{6A052F06-07F1-4F7D-9535-778E9CB1C8DD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8AE346E9-8F56-4014-AF3B-94A1D5E55A92}" name="Coluna1"/>
-    <tableColumn id="2" xr3:uid="{496C6370-2BD8-4FBF-A361-97D390310FFE}" name="Coluna2" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{496C6370-2BD8-4FBF-A361-97D390310FFE}" name="Coluna2" dataDxfId="38"/>
     <tableColumn id="3" xr3:uid="{1DF07C81-C3E6-4DAC-A80A-197C5A6B3B47}" name="Coluna3"/>
     <tableColumn id="4" xr3:uid="{EB701627-443C-459A-B66F-DCD98CCA8C6E}" name="Coluna4"/>
   </tableColumns>
@@ -1516,14 +1519,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D57476B-5004-4C0A-8685-9101AC79DC72}" name="Tabela6" displayName="Tabela6" ref="A27:E32" totalsRowShown="0" headerRowDxfId="33" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D57476B-5004-4C0A-8685-9101AC79DC72}" name="Tabela6" displayName="Tabela6" ref="A27:E32" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A27:E32" xr:uid="{0D57476B-5004-4C0A-8685-9101AC79DC72}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A2210AA4-7905-47A7-B916-B5A9A8C4880D}" name="Coluna1" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{DF7FBEAF-D808-4E32-B1A8-79ACCFE6533E}" name="Coluna2" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{59513E5D-E133-4B5A-A798-087C57C281F4}" name="Coluna3" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{D3EAE4E6-865B-4497-B727-182E4A0C98C4}" name="Coluna4" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{3FA8618A-30C6-425D-8099-CDB9D1D0614E}" name="Coluna5" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{A2210AA4-7905-47A7-B916-B5A9A8C4880D}" name="Coluna1" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{DF7FBEAF-D808-4E32-B1A8-79ACCFE6533E}" name="Coluna2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{59513E5D-E133-4B5A-A798-087C57C281F4}" name="Coluna3" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{D3EAE4E6-865B-4497-B727-182E4A0C98C4}" name="Coluna4" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{3FA8618A-30C6-425D-8099-CDB9D1D0614E}" name="Coluna5" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1533,39 +1536,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4155BABD-DD83-4E5F-B587-82CE3D3D7B01}" name="Tabela9" displayName="Tabela9" ref="G27:H56" totalsRowShown="0" dataDxfId="30">
   <autoFilter ref="G27:H56" xr:uid="{4155BABD-DD83-4E5F-B587-82CE3D3D7B01}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E2F41EEF-3B97-4B59-AEF4-B6D4CC47AB8A}" name="Coluna1" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{5068CAF5-5489-48DB-B97E-C33B0DAD8722}" name="Coluna2" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{E2F41EEF-3B97-4B59-AEF4-B6D4CC47AB8A}" name="Coluna1" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5068CAF5-5489-48DB-B97E-C33B0DAD8722}" name="Coluna2" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A042327F-C1E6-499D-8683-59D223980374}" name="Tabela10" displayName="Tabela10" ref="J27:P48" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A042327F-C1E6-499D-8683-59D223980374}" name="Tabela10" displayName="Tabela10" ref="J27:P48" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="J27:P48" xr:uid="{A042327F-C1E6-499D-8683-59D223980374}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B006E746-EB5F-4F4A-8A46-F973EEE32F38}" name="Coluna1"/>
-    <tableColumn id="2" xr3:uid="{40169A03-53E3-4FD9-89A6-45D1355EA7E5}" name="Coluna2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{BFBC35E2-D4A5-43A2-90AB-54962903ABC4}" name="Coluna3" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{C579B588-06F2-4FC1-BA5E-81A0B26B3D93}" name="Coluna32" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{01B7EF6C-049E-49EA-87FA-C91F0A4187C3}" name="Coluna4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{48B07D4F-FC91-484D-89FE-6E740D54A8E9}" name="Coluna5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F576CBB6-8E6A-4AB1-B607-9F87968BF2FE}" name="Coluna6" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{40169A03-53E3-4FD9-89A6-45D1355EA7E5}" name="Coluna2" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{BFBC35E2-D4A5-43A2-90AB-54962903ABC4}" name="Coluna3" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{C579B588-06F2-4FC1-BA5E-81A0B26B3D93}" name="Coluna32" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{01B7EF6C-049E-49EA-87FA-C91F0A4187C3}" name="Coluna4" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{48B07D4F-FC91-484D-89FE-6E740D54A8E9}" name="Coluna5" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{F576CBB6-8E6A-4AB1-B607-9F87968BF2FE}" name="Coluna6" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C5843189-3217-4BC3-8D9C-EA1B258CD7BA}" name="Tabela12" displayName="Tabela12" ref="A1:F7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C5843189-3217-4BC3-8D9C-EA1B258CD7BA}" name="Tabela12" displayName="Tabela12" ref="A1:F7" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:F7" xr:uid="{C5843189-3217-4BC3-8D9C-EA1B258CD7BA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F03BE7E1-B689-4BEC-BCE1-469F1F10DAB8}" name="Coluna1" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{38AA5958-82F3-4897-B936-0493606853A5}" name="Coluna2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{C854EFA9-DF6F-4CAD-9647-5DBEB5D4102B}" name="Coluna3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{FDDD36E6-B4A9-487A-9F22-607422267EB0}" name="Coluna4" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{327A8404-3814-437C-B957-C49D79806214}" name="Coluna5" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{29BF3504-D658-4E31-9B1A-A98C07EE9DF5}" name="Coluna6" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{F03BE7E1-B689-4BEC-BCE1-469F1F10DAB8}" name="Coluna1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{38AA5958-82F3-4897-B936-0493606853A5}" name="Coluna2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{C854EFA9-DF6F-4CAD-9647-5DBEB5D4102B}" name="Coluna3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FDDD36E6-B4A9-487A-9F22-607422267EB0}" name="Coluna4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{327A8404-3814-437C-B957-C49D79806214}" name="Coluna5" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{29BF3504-D658-4E31-9B1A-A98C07EE9DF5}" name="Coluna6" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2323,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3BD83A-E076-41C8-B7C7-13D085C1600C}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+    <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
@@ -3896,10 +3899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F9DE9F-4B28-4C41-9080-AF60EAF29316}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N6" sqref="N5:N6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,12 +3914,13 @@
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>82</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>95</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>100</v>
       </c>
@@ -3975,11 +3979,11 @@
       <c r="F3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>105</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>109</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>114</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>119</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>82</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>95</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>100</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>100</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>105</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>109</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>109</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>114</v>
       </c>
@@ -4207,7 +4211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>114</v>
       </c>
@@ -4215,7 +4219,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>114</v>
       </c>
@@ -4223,7 +4227,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>119</v>
       </c>
@@ -4231,6 +4235,11 @@
         <v>26</v>
       </c>
       <c r="F21" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
